--- a/5.numpyBasic.xlsx
+++ b/5.numpyBasic.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9CA739-EC99-4350-B267-5F5D0CD8F99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="operation" sheetId="1" r:id="rId1"/>
+    <sheet name="merge" sheetId="2" r:id="rId2"/>
+    <sheet name="search" sheetId="3" r:id="rId3"/>
+    <sheet name="iterate" sheetId="5" r:id="rId4"/>
+    <sheet name="copy_view" sheetId="6" r:id="rId5"/>
+    <sheet name="split" sheetId="8" r:id="rId6"/>
+    <sheet name="filter" sheetId="10" r:id="rId7"/>
+    <sheet name="resize" sheetId="11" r:id="rId8"/>
+    <sheet name="insert" sheetId="12" r:id="rId9"/>
+    <sheet name="matrix" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +82,1992 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>534325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBBE0A3-CFC0-5AA0-3DE0-D2D4C8BF4C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="180975"/>
+          <a:ext cx="6630325" cy="4305901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>143746</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>48243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA187740-D62C-1708-8D03-F534EF55D5F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="4762500"/>
+          <a:ext cx="6239746" cy="4429743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>67296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E009E755-96CE-7384-B58B-9E213D2FD8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="9525000"/>
+          <a:ext cx="6096851" cy="4448796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124762</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841AE8D7-BD37-AF01-6ADD-C9A5158D6315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="14135100"/>
+          <a:ext cx="6716062" cy="4029637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>477167</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>133900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F91AE1-712C-0E47-066E-D0A680855650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="18288000"/>
+          <a:ext cx="6573167" cy="3943900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438936</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>76733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E985DFB-1EF2-CB90-3880-2CC07FEC8EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="22355175"/>
+          <a:ext cx="5630061" cy="3820058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>229285</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B923EF-7B06-43B2-B6D1-C6D9722E5EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124825" y="257175"/>
+          <a:ext cx="4906060" cy="3886742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225424</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>521081</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9DDCFB-3BE8-3715-82E0-F553E777AC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066924" y="1535642"/>
+          <a:ext cx="2750990" cy="2724530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>41598</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2A078F-93B1-16A1-6F04-85CE265D2D3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4466167" y="709083"/>
+          <a:ext cx="2327598" cy="2438740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>37040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203477</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21206760-56A5-87D9-BAAE-154A334FD009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8630707" y="809625"/>
+          <a:ext cx="2007937" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137582</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176028</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22A8877-63E2-8F39-9946-A5B1014D0AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8731249" y="2772833"/>
+          <a:ext cx="2493779" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277282</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>96622</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>188591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4173961-D390-5738-0E0F-7DA4D6B1D5DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346449" y="4417484"/>
+          <a:ext cx="2274673" cy="1486107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>345017</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297726</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC72B821-5D42-87BF-1C8A-BC4DCF68448B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8938684" y="4780491"/>
+          <a:ext cx="2408042" cy="1305107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154831</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A577D5D-3947-C185-3178-97CB14FC2DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5873750" y="2796117"/>
+          <a:ext cx="2260914" cy="2743583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>746</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548E312A-B90E-71DA-82A0-886A98B3A08D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="38100"/>
+          <a:ext cx="5344271" cy="3839111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>305107</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD1F839-FBFA-5E2E-DBCF-147DDBCDFA0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="781050"/>
+          <a:ext cx="2200582" cy="1124107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>417</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E009021D-E20A-71C3-6F57-76EADA2D5ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="2085975"/>
+          <a:ext cx="2991267" cy="1343212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190923</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8BBBB1-DC4E-46D7-31A6-F22A9248CC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8743950" y="1143000"/>
+          <a:ext cx="3029373" cy="1819529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400361</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05DB30B-76D8-471A-A41E-90C7B7F296C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="2229161" cy="2524477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>505168</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4AB0A2-E58B-463C-BAE5-D5B8B07CB254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="6000750"/>
+          <a:ext cx="2457793" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200332</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0605A9-59BB-4794-956B-25B90DDCC877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="6048375"/>
+          <a:ext cx="2200582" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>105037</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD179895-4104-4332-9615-5AB32F9E71A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="6105525"/>
+          <a:ext cx="1876687" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133684</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4661D56F-AC94-4373-B0DE-6B3CAA2A5A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="6143625"/>
+          <a:ext cx="2391109" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552777</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA71E081-9557-41EC-B270-E7AC46A7CC6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="4733925"/>
+          <a:ext cx="2343477" cy="990738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467783</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D57DFD-DCC3-346E-0654-2F39DD9B5CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="123825"/>
+          <a:ext cx="7582958" cy="4077269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>486323</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D838DAC0-91A2-58F1-32B8-D8C955CBA3A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="4333875"/>
+          <a:ext cx="3924848" cy="1619476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572569</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84B7896-BEC6-917E-256A-7D287F9CB57A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="6048375"/>
+          <a:ext cx="7659169" cy="3610479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>286319</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>124163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CB8F48-E4DC-DF41-7A51-9922B0B7BD4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="8943975"/>
+          <a:ext cx="4077269" cy="2419688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371857</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92519FA-5F64-4AB7-9D24-80DFB2B71AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="1724025"/>
+          <a:ext cx="2734057" cy="1952898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419394</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A2E4BC-F6AB-4866-9A50-634DC1A11298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115675" y="1762125"/>
+          <a:ext cx="2105319" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>86095</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{511CF0BE-21BF-7C7F-BCFC-D2C0E86CD99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="161925"/>
+          <a:ext cx="2648320" cy="2438740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352729</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A75B07-6A5D-A0AF-3E06-A19745F34189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="190500"/>
+          <a:ext cx="2181529" cy="2295845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429711</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E49285C-73FC-DEA0-F768-4B180571B794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="257175"/>
+          <a:ext cx="7783011" cy="3096057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>543326</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10AD233-05A6-F757-DFBC-3DD7F8846550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="438150"/>
+          <a:ext cx="2876951" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B93583-1552-88E1-5B98-6A94D6A4F7F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2857899" cy="1838582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28816</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FE9CED-862E-3F91-F540-6AEBB1D4780E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="1076325"/>
+          <a:ext cx="1724266" cy="2257740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6F3BF2-FD6F-46D9-3EA0-A3C6A2DE6C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="123825"/>
+          <a:ext cx="2333951" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>96133</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>162053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91C2BAC-2933-BB0C-41E3-53167A4A3DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="200025"/>
+          <a:ext cx="6325483" cy="914528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>534325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09DBEBC-42C6-84F4-B733-D71059ACD1E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="2286000"/>
+          <a:ext cx="6630325" cy="2514951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219387</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C755CA5-E2DD-7144-0653-C23260CE3255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="2276475"/>
+          <a:ext cx="2238687" cy="1600423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200460</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B58261-F4C4-235D-5557-61218C826C1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="4067175"/>
+          <a:ext cx="3115110" cy="1771897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>467097</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A200AA5-2C9F-6951-51EC-54BEBB10FC10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="371475"/>
+          <a:ext cx="2667372" cy="2324424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333726</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87337C0B-0FD3-0968-B8F7-71B22961AF23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="438150"/>
+          <a:ext cx="2514951" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>543333</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BF9328-F787-3F00-A027-ED4B8BF96447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="190500"/>
+          <a:ext cx="2924583" cy="2772162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2332,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0BEFA1-6DA9-4463-B705-C3FC879E7DE8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1378480-FFBA-430C-AEE2-4614DA878FB1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63F2C3F-D1EC-4ABE-B60B-BAF3A367B72D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B453A08-CD55-4E78-8DAC-2883BDF914C2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849A82-F6FC-4CC2-9BFF-19309720B907}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC77715-464A-4314-92E4-17C679B15EA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E819F3C6-0DEE-4113-83B7-86F2F6D57D12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C263D395-C2D0-4F64-A04C-1579960EBC38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA229C44-0AC0-4C13-A943-C6A87D3F6516}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>